--- a/classfiers/mega/knn/mega-knn-results.xlsx
+++ b/classfiers/mega/knn/mega-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8614301801801802</v>
+        <v>0.7304547491039426</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6842105263157894</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7979166666666668</v>
+        <v>0.9788306451612905</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.9583333333333334</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9972972972972973</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8941176470588235</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9567567567567566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.8674698795180723</v>
       </c>
       <c r="E6" t="n">
-        <v>0.92392179413456</v>
+        <v>0.9042553191489362</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.874703727644904</v>
+        <v>0.8529620721554118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.823404255319149</v>
+        <v>0.8031028368794326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.816154501572498</v>
+        <v>0.8247758033765029</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9080050795476329</v>
+        <v>0.9221676021422933</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/knn/mega-knn-results.xlsx
+++ b/classfiers/mega/knn/mega-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.35</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3125</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7304547491039426</v>
+        <v>0.7452259279182356</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D3" t="n">
-        <v>0.968421052631579</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9788306451612905</v>
+        <v>0.9768692845615923</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.96</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9972972972972973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D5" t="n">
-        <v>0.989247311827957</v>
+        <v>0.988235294117647</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8674698795180723</v>
+        <v>0.8533333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9042553191489362</v>
+        <v>0.8953488372093024</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8529620721554118</v>
+        <v>0.8608033826638477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8031028368794326</v>
+        <v>0.7987315010570823</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8247758033765029</v>
+        <v>0.8257849898580123</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9221676021422933</v>
+        <v>0.923488809937826</v>
       </c>
     </row>
   </sheetData>
